--- a/Data분석/경쟁전.xlsx
+++ b/Data분석/경쟁전.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\page배포용\plz\Data분석\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="50" windowWidth="28040" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,6 +152,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -194,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,12 +449,12 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -502,7 +510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>18</v>
       </c>
@@ -558,7 +566,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>19</v>
       </c>
@@ -614,7 +622,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>20</v>
       </c>
@@ -634,7 +642,7 @@
         <v>49</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>9836</v>
       </c>
       <c r="H4">
         <v>12</v>
@@ -670,7 +678,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>21</v>
       </c>
@@ -726,7 +734,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>22</v>
       </c>
@@ -782,7 +790,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>23</v>
       </c>
@@ -838,7 +846,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>24</v>
       </c>
@@ -894,7 +902,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>25</v>
       </c>
@@ -950,7 +958,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>26</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>28</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>31</v>
       </c>
@@ -1187,7 +1195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,7 +1208,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
